--- a/5/2/2/Moneda nacional 1990 a 2021 - Trimestral.xlsx
+++ b/5/2/2/Moneda nacional 1990 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>Serie</t>
   </si>
@@ -413,6 +413,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -770,7 +773,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H126"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4052,6 +4055,32 @@
         <v>317</v>
       </c>
     </row>
+    <row r="127" spans="1:8">
+      <c r="A127" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127">
+        <v>174513</v>
+      </c>
+      <c r="C127">
+        <v>161171</v>
+      </c>
+      <c r="D127">
+        <v>22786</v>
+      </c>
+      <c r="E127">
+        <v>138385</v>
+      </c>
+      <c r="F127">
+        <v>537</v>
+      </c>
+      <c r="G127">
+        <v>12267</v>
+      </c>
+      <c r="H127">
+        <v>538</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
